--- a/cms_system_200_smartpx.xlsx
+++ b/cms_system_200_smartpx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wilkie/code/system_flow/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E71491A6-C385-6147-94D8-5D0FD94E1824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86CD570E-B305-5B4B-934A-3EB5AAC106F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21800" yWindow="4380" windowWidth="25560" windowHeight="21340" activeTab="1" xr2:uid="{692BBBC8-C526-4D44-8BFB-29D6E6B2783D}"/>
+    <workbookView xWindow="2640" yWindow="760" windowWidth="25560" windowHeight="17460" activeTab="1" xr2:uid="{692BBBC8-C526-4D44-8BFB-29D6E6B2783D}"/>
   </bookViews>
   <sheets>
     <sheet name="Detectors" sheetId="1" r:id="rId1"/>
@@ -159,7 +159,7 @@
     <t>Sample Rate</t>
   </si>
   <si>
-    <t>Resource</t>
+    <t>Inference Energy</t>
   </si>
 </sst>
 </file>
@@ -1194,7 +1194,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/cms_system_200_smartpx.xlsx
+++ b/cms_system_200_smartpx.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wilkie/code/system_flow/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86CD570E-B305-5B4B-934A-3EB5AAC106F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76231FA2-F956-A646-85B0-67395B6CDB8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="760" windowWidth="25560" windowHeight="17460" activeTab="1" xr2:uid="{692BBBC8-C526-4D44-8BFB-29D6E6B2783D}"/>
+    <workbookView xWindow="2640" yWindow="760" windowWidth="25560" windowHeight="22100" xr2:uid="{692BBBC8-C526-4D44-8BFB-29D6E6B2783D}"/>
   </bookViews>
   <sheets>
     <sheet name="Detectors" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="40">
   <si>
     <t>Category</t>
   </si>
@@ -123,18 +123,6 @@
     <t>Data (bytes)</t>
   </si>
   <si>
-    <t>True Pass</t>
-  </si>
-  <si>
-    <t>True Discard</t>
-  </si>
-  <si>
-    <t>False Pass (alpha)</t>
-  </si>
-  <si>
-    <t>False Discard (beta)</t>
-  </si>
-  <si>
     <t>Compression</t>
   </si>
   <si>
@@ -160,6 +148,15 @@
   </si>
   <si>
     <t>Inference Energy</t>
+  </si>
+  <si>
+    <t>Reduction</t>
+  </si>
+  <si>
+    <t>Skill mean</t>
+  </si>
+  <si>
+    <t>Skill variance</t>
   </si>
 </sst>
 </file>
@@ -512,19 +509,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55FF34C2-0233-224E-A21E-0372D088B6D7}">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="6" width="14.6640625" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -535,28 +531,16 @@
         <v>27</v>
       </c>
       <c r="D1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E1" t="s">
         <v>28</v>
       </c>
       <c r="F1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -564,33 +548,21 @@
         <v>26</v>
       </c>
       <c r="C2">
-        <f>INT(1000000*J2)</f>
+        <f>INT(1000000*F2)</f>
         <v>662400</v>
       </c>
       <c r="D2" s="1">
         <v>40000000</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
         <f>1.44*(1-0.54)</f>
         <v>0.66239999999999988</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -598,32 +570,20 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C20" si="0">INT(1000000*J3)</f>
+        <f>INT(1000000*F3)</f>
         <v>720000</v>
       </c>
       <c r="D3" s="1">
         <v>40000000</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
         <v>0.72</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -631,32 +591,20 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <f t="shared" si="0"/>
+        <f>INT(1000000*F4)</f>
         <v>430000</v>
       </c>
       <c r="D4" s="1">
         <v>40000000</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
         <v>0.43</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -664,32 +612,20 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <f t="shared" si="0"/>
+        <f>INT(1000000*F5)</f>
         <v>10000</v>
       </c>
       <c r="D5" s="1">
         <v>40000000</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
         <v>0.01</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -697,32 +633,20 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <f t="shared" si="0"/>
+        <f>INT(1000000*F6)</f>
         <v>240000</v>
       </c>
       <c r="D6" s="1">
         <v>40000000</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
         <v>0.24</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -730,32 +654,20 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <f t="shared" si="0"/>
+        <f>INT(1000000*F7)</f>
         <v>440000</v>
       </c>
       <c r="D7" s="1">
         <v>40000000</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
         <v>0.44</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -763,32 +675,20 @@
         <v>12</v>
       </c>
       <c r="C8">
-        <f t="shared" si="0"/>
+        <f>INT(1000000*F8)</f>
         <v>600000</v>
       </c>
       <c r="D8" s="1">
         <v>40000000</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
         <v>0.6</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -796,32 +696,20 @@
         <v>13</v>
       </c>
       <c r="C9">
-        <f t="shared" si="0"/>
+        <f>INT(1000000*F9)</f>
         <v>240000</v>
       </c>
       <c r="D9" s="1">
         <v>40000000</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
         <v>0.24</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -829,32 +717,20 @@
         <v>14</v>
       </c>
       <c r="C10">
-        <f t="shared" si="0"/>
+        <f>INT(1000000*F10)</f>
         <v>30000</v>
       </c>
       <c r="D10" s="1">
         <v>40000000</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
         <v>0.03</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -862,32 +738,20 @@
         <v>15</v>
       </c>
       <c r="C11">
-        <f t="shared" si="0"/>
+        <f>INT(1000000*F11)</f>
         <v>60000</v>
       </c>
       <c r="D11" s="1">
         <v>40000000</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
         <v>0.06</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -895,32 +759,20 @@
         <v>16</v>
       </c>
       <c r="C12">
-        <f t="shared" si="0"/>
+        <f>INT(1000000*F12)</f>
         <v>3000000</v>
       </c>
       <c r="D12" s="1">
         <v>40000000</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -928,32 +780,20 @@
         <v>17</v>
       </c>
       <c r="C13">
-        <f t="shared" si="0"/>
+        <f>INT(1000000*F13)</f>
         <v>150000</v>
       </c>
       <c r="D13" s="1">
         <v>40000000</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
         <v>0.15</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -961,32 +801,20 @@
         <v>18</v>
       </c>
       <c r="C14">
-        <f t="shared" si="0"/>
+        <f>INT(1000000*F14)</f>
         <v>50000</v>
       </c>
       <c r="D14" s="1">
         <v>40000000</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
         <v>0.05</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -994,32 +822,20 @@
         <v>20</v>
       </c>
       <c r="C15">
-        <f t="shared" si="0"/>
+        <f>INT(1000000*F15)</f>
         <v>150000</v>
       </c>
       <c r="D15" s="1">
         <v>40000000</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
         <v>0.15</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -1027,32 +843,20 @@
         <v>21</v>
       </c>
       <c r="C16">
-        <f t="shared" si="0"/>
+        <f>INT(1000000*F16)</f>
         <v>470000</v>
       </c>
       <c r="D16" s="1">
         <v>40000000</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
         <v>0.47</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1060,32 +864,20 @@
         <v>22</v>
       </c>
       <c r="C17">
-        <f t="shared" si="0"/>
+        <f>INT(1000000*F17)</f>
         <v>3000</v>
       </c>
       <c r="D17" s="1">
         <v>40000000</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1093,32 +885,20 @@
         <v>23</v>
       </c>
       <c r="C18">
-        <f t="shared" si="0"/>
+        <f>INT(1000000*F18)</f>
         <v>2000</v>
       </c>
       <c r="D18" s="1">
         <v>40000000</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
         <v>2E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -1126,32 +906,20 @@
         <v>24</v>
       </c>
       <c r="C19">
-        <f t="shared" si="0"/>
+        <f>INT(1000000*F19)</f>
         <v>120000</v>
       </c>
       <c r="D19" s="1">
         <v>40000000</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
         <v>0.12</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1159,28 +927,16 @@
         <v>25</v>
       </c>
       <c r="C20">
-        <f t="shared" si="0"/>
+        <f>INT(1000000*F20)</f>
         <v>10000</v>
       </c>
       <c r="D20" s="1">
         <v>40000000</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
         <v>0.01</v>
       </c>
     </row>
@@ -1193,36 +949,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF50D47B-EF5E-D84A-888D-0FD7C5F25128}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C1" t="s">
         <v>27</v>
       </c>
       <c r="D1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" t="s">
         <v>28</v>
       </c>
-      <c r="E1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" t="s">
-        <v>31</v>
-      </c>
       <c r="H1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I1" t="s">
         <v>2</v>
@@ -1231,12 +987,12 @@
         <v>3</v>
       </c>
       <c r="K1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -1265,7 +1021,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -1294,7 +1050,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -1323,7 +1079,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
         <v>19</v>
@@ -1352,23 +1108,22 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C6">
-        <f>INT(1000000*J6)</f>
         <v>260000</v>
       </c>
       <c r="D6">
+        <v>400</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
         <v>1</v>
-      </c>
-      <c r="E6">
-        <v>399</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1388,22 +1143,22 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
+        <v>13.3</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7">
         <v>1</v>
-      </c>
-      <c r="E7">
-        <v>13.3</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1417,10 +1172,10 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C8">
         <v>0</v>

--- a/cms_system_200_smartpx.xlsx
+++ b/cms_system_200_smartpx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wilkie/code/system_flow/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC61344C-2872-9A45-BF4F-24FC4DA65803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F023B9D7-E694-A640-92CC-434C7679B877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21180" yWindow="2460" windowWidth="25560" windowHeight="22100" xr2:uid="{692BBBC8-C526-4D44-8BFB-29D6E6B2783D}"/>
+    <workbookView xWindow="20640" yWindow="2420" windowWidth="25560" windowHeight="22100" activeTab="1" xr2:uid="{692BBBC8-C526-4D44-8BFB-29D6E6B2783D}"/>
   </bookViews>
   <sheets>
     <sheet name="Detectors" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="41">
   <si>
     <t>Category</t>
   </si>
@@ -203,10 +203,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -523,8 +524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55FF34C2-0233-224E-A21E-0372D088B6D7}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F31" activeCellId="1" sqref="G1 F31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1080,10 +1081,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF50D47B-EF5E-D84A-888D-0FD7C5F25128}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1092,259 +1093,235 @@
     <col min="10" max="10" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
         <v>1</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1">
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3">
         <v>2.5000000000000001E-11</v>
       </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
         <v>1</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1">
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3">
         <v>2.5000000000000001E-11</v>
       </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
         <v>1</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1">
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3">
         <v>2.5000000000000001E-11</v>
       </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
         <v>1</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1">
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
         <v>2.5000000000000001E-11</v>
       </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>260000</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>400</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <v>3</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="2">
         <v>1</v>
       </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1">
+      <c r="G6" s="3">
         <v>2.5000000000000001E-11</v>
       </c>
-      <c r="J6">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="H6" s="2">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
         <v>13.3</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <v>4</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="2">
         <v>1</v>
       </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1">
+      <c r="G7" s="3">
         <v>2.5000000000000001E-11</v>
       </c>
-      <c r="J7">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="H7" s="2">
+        <v>16</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
         <v>1</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1">
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
         <v>2.5000000000000001E-11</v>
       </c>
-      <c r="J8">
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
         <v>0</v>
       </c>
     </row>

--- a/cms_system_200_smartpx.xlsx
+++ b/cms_system_200_smartpx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wilkie/code/system_flow/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F023B9D7-E694-A640-92CC-434C7679B877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD14AA1D-C959-C04F-A56F-C163A2EA4383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20640" yWindow="2420" windowWidth="25560" windowHeight="22100" activeTab="1" xr2:uid="{692BBBC8-C526-4D44-8BFB-29D6E6B2783D}"/>
   </bookViews>
@@ -1084,7 +1084,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1249,7 +1249,7 @@
         <v>260000</v>
       </c>
       <c r="D6" s="2">
-        <v>400</v>
+        <v>53.3</v>
       </c>
       <c r="E6" s="2">
         <v>3</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="2">
-        <v>13.3</v>
+        <v>100</v>
       </c>
       <c r="E7" s="2">
         <v>4</v>

--- a/cms_system_200_smartpx.xlsx
+++ b/cms_system_200_smartpx.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wilkie/code/system_flow/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD14AA1D-C959-C04F-A56F-C163A2EA4383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43EE262D-7891-9042-9947-D1A22DB9642F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20640" yWindow="2420" windowWidth="25560" windowHeight="22100" activeTab="1" xr2:uid="{692BBBC8-C526-4D44-8BFB-29D6E6B2783D}"/>
+    <workbookView xWindow="5560" yWindow="5500" windowWidth="25560" windowHeight="22100" activeTab="1" xr2:uid="{692BBBC8-C526-4D44-8BFB-29D6E6B2783D}"/>
   </bookViews>
   <sheets>
     <sheet name="Detectors" sheetId="1" r:id="rId1"/>
@@ -145,9 +145,6 @@
     <t>Sample Rate</t>
   </si>
   <si>
-    <t>Reduction</t>
-  </si>
-  <si>
     <t>Skill mean</t>
   </si>
   <si>
@@ -161,6 +158,9 @@
   </si>
   <si>
     <t>Op Efficiency (J/op)</t>
+  </si>
+  <si>
+    <t>Reduction Ratio</t>
   </si>
 </sst>
 </file>
@@ -551,10 +551,10 @@
         <v>27</v>
       </c>
       <c r="F1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H1" t="s">
         <v>2</v>
@@ -568,7 +568,7 @@
         <v>25</v>
       </c>
       <c r="C2">
-        <f>INT(1000000*H2)</f>
+        <f t="shared" ref="C2:C20" si="0">INT(1000000*H2)</f>
         <v>662400</v>
       </c>
       <c r="D2" s="1">
@@ -596,7 +596,7 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <f>INT(1000000*H3)</f>
+        <f t="shared" si="0"/>
         <v>720000</v>
       </c>
       <c r="D3" s="1">
@@ -623,7 +623,7 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <f>INT(1000000*H4)</f>
+        <f t="shared" si="0"/>
         <v>430000</v>
       </c>
       <c r="D4" s="1">
@@ -650,7 +650,7 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <f>INT(1000000*H5)</f>
+        <f t="shared" si="0"/>
         <v>10000</v>
       </c>
       <c r="D5" s="1">
@@ -677,7 +677,7 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <f>INT(1000000*H6)</f>
+        <f t="shared" si="0"/>
         <v>240000</v>
       </c>
       <c r="D6" s="1">
@@ -704,7 +704,7 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <f>INT(1000000*H7)</f>
+        <f t="shared" si="0"/>
         <v>440000</v>
       </c>
       <c r="D7" s="1">
@@ -731,7 +731,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <f>INT(1000000*H8)</f>
+        <f t="shared" si="0"/>
         <v>600000</v>
       </c>
       <c r="D8" s="1">
@@ -758,7 +758,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <f>INT(1000000*H9)</f>
+        <f t="shared" si="0"/>
         <v>240000</v>
       </c>
       <c r="D9" s="1">
@@ -785,7 +785,7 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <f>INT(1000000*H10)</f>
+        <f t="shared" si="0"/>
         <v>30000</v>
       </c>
       <c r="D10" s="1">
@@ -812,7 +812,7 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <f>INT(1000000*H11)</f>
+        <f t="shared" si="0"/>
         <v>60000</v>
       </c>
       <c r="D11" s="1">
@@ -839,7 +839,7 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <f>INT(1000000*H12)</f>
+        <f t="shared" si="0"/>
         <v>3000000</v>
       </c>
       <c r="D12" s="1">
@@ -866,7 +866,7 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <f>INT(1000000*H13)</f>
+        <f t="shared" si="0"/>
         <v>150000</v>
       </c>
       <c r="D13" s="1">
@@ -893,7 +893,7 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <f>INT(1000000*H14)</f>
+        <f t="shared" si="0"/>
         <v>50000</v>
       </c>
       <c r="D14" s="1">
@@ -920,7 +920,7 @@
         <v>19</v>
       </c>
       <c r="C15">
-        <f>INT(1000000*H15)</f>
+        <f t="shared" si="0"/>
         <v>150000</v>
       </c>
       <c r="D15" s="1">
@@ -947,7 +947,7 @@
         <v>20</v>
       </c>
       <c r="C16">
-        <f>INT(1000000*H16)</f>
+        <f t="shared" si="0"/>
         <v>470000</v>
       </c>
       <c r="D16" s="1">
@@ -974,7 +974,7 @@
         <v>21</v>
       </c>
       <c r="C17">
-        <f>INT(1000000*H17)</f>
+        <f t="shared" si="0"/>
         <v>3000</v>
       </c>
       <c r="D17" s="1">
@@ -1001,7 +1001,7 @@
         <v>22</v>
       </c>
       <c r="C18">
-        <f>INT(1000000*H18)</f>
+        <f t="shared" si="0"/>
         <v>2000</v>
       </c>
       <c r="D18" s="1">
@@ -1028,7 +1028,7 @@
         <v>23</v>
       </c>
       <c r="C19">
-        <f>INT(1000000*H19)</f>
+        <f t="shared" si="0"/>
         <v>120000</v>
       </c>
       <c r="D19" s="1">
@@ -1055,7 +1055,7 @@
         <v>24</v>
       </c>
       <c r="C20">
-        <f>INT(1000000*H20)</f>
+        <f t="shared" si="0"/>
         <v>10000</v>
       </c>
       <c r="D20" s="1">
@@ -1084,7 +1084,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1094,31 +1094,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="H1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1342,7 +1342,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">

--- a/cms_system_200_smartpx.xlsx
+++ b/cms_system_200_smartpx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wilkie/code/system_flow/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43EE262D-7891-9042-9947-D1A22DB9642F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA566FDD-15C2-3B48-A548-1E0D8129D9FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5560" yWindow="5500" windowWidth="25560" windowHeight="22100" activeTab="1" xr2:uid="{692BBBC8-C526-4D44-8BFB-29D6E6B2783D}"/>
+    <workbookView xWindow="5560" yWindow="5280" windowWidth="25560" windowHeight="22100" activeTab="1" xr2:uid="{692BBBC8-C526-4D44-8BFB-29D6E6B2783D}"/>
   </bookViews>
   <sheets>
     <sheet name="Detectors" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="40">
   <si>
     <t>Category</t>
   </si>
@@ -137,9 +137,6 @@
   </si>
   <si>
     <t>Disk</t>
-  </si>
-  <si>
-    <t>None</t>
   </si>
   <si>
     <t>Sample Rate</t>
@@ -545,16 +542,16 @@
         <v>26</v>
       </c>
       <c r="D1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E1" t="s">
         <v>27</v>
       </c>
       <c r="F1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H1" t="s">
         <v>2</v>
@@ -1084,7 +1081,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1104,19 +1101,19 @@
         <v>26</v>
       </c>
       <c r="D1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" t="s">
         <v>35</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="H1" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I1" t="s">
         <v>27</v>
@@ -1300,9 +1297,7 @@
       <c r="A8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>33</v>
-      </c>
+      <c r="B8" s="2"/>
       <c r="C8" s="2">
         <v>0</v>
       </c>
@@ -1342,7 +1337,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">

--- a/cms_system_200_smartpx.xlsx
+++ b/cms_system_200_smartpx.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wilkie/code/system_flow/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA566FDD-15C2-3B48-A548-1E0D8129D9FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{944AA115-6947-2E45-B9DB-A8BC2866DD8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5560" yWindow="5280" windowWidth="25560" windowHeight="22100" activeTab="1" xr2:uid="{692BBBC8-C526-4D44-8BFB-29D6E6B2783D}"/>
+    <workbookView xWindow="22900" yWindow="4720" windowWidth="25560" windowHeight="22100" xr2:uid="{692BBBC8-C526-4D44-8BFB-29D6E6B2783D}"/>
   </bookViews>
   <sheets>
     <sheet name="Detectors" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="44">
   <si>
     <t>Category</t>
   </si>
@@ -158,6 +158,18 @@
   </si>
   <si>
     <t>Reduction Ratio</t>
+  </si>
+  <si>
+    <t>Classifier</t>
+  </si>
+  <si>
+    <t>Dummy</t>
+  </si>
+  <si>
+    <t>Gaussian</t>
+  </si>
+  <si>
+    <t>L1T</t>
   </si>
 </sst>
 </file>
@@ -223,9 +235,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -263,7 +275,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -369,7 +381,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -511,7 +523,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -521,12 +533,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55FF34C2-0233-224E-A21E-0372D088B6D7}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="2" width="20.33203125" customWidth="1"/>
     <col min="6" max="6" width="42.33203125" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
   </cols>
@@ -1078,10 +1091,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF50D47B-EF5E-D84A-888D-0FD7C5F25128}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1090,7 +1103,7 @@
     <col min="10" max="10" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -1104,22 +1117,25 @@
         <v>39</v>
       </c>
       <c r="E1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" t="s">
         <v>34</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1132,23 +1148,26 @@
       <c r="D2" s="2">
         <v>1</v>
       </c>
-      <c r="E2" s="2">
-        <v>0</v>
+      <c r="E2" t="s">
+        <v>41</v>
       </c>
       <c r="F2" s="2">
         <v>0</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3">
         <v>2.5000000000000001E-11</v>
       </c>
-      <c r="H2" s="2">
-        <v>0</v>
-      </c>
       <c r="I2" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1161,23 +1180,26 @@
       <c r="D3" s="2">
         <v>1</v>
       </c>
-      <c r="E3" s="2">
-        <v>0</v>
+      <c r="E3" t="s">
+        <v>41</v>
       </c>
       <c r="F3" s="2">
         <v>0</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3">
         <v>2.5000000000000001E-11</v>
       </c>
-      <c r="H3" s="2">
-        <v>0</v>
-      </c>
       <c r="I3" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -1190,23 +1212,26 @@
       <c r="D4" s="2">
         <v>1</v>
       </c>
-      <c r="E4" s="2">
-        <v>0</v>
+      <c r="E4" t="s">
+        <v>41</v>
       </c>
       <c r="F4" s="2">
         <v>0</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
         <v>2.5000000000000001E-11</v>
       </c>
-      <c r="H4" s="2">
-        <v>0</v>
-      </c>
       <c r="I4" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
@@ -1219,23 +1244,26 @@
       <c r="D5" s="2">
         <v>1</v>
       </c>
-      <c r="E5" s="2">
-        <v>0</v>
+      <c r="E5" t="s">
+        <v>42</v>
       </c>
       <c r="F5" s="2">
         <v>0</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
         <v>2.5000000000000001E-11</v>
       </c>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
       <c r="I5" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>28</v>
       </c>
@@ -1248,23 +1276,26 @@
       <c r="D6" s="2">
         <v>53.3</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="2">
         <v>3</v>
       </c>
-      <c r="F6" s="2">
+      <c r="G6" s="2">
         <v>1</v>
       </c>
-      <c r="G6" s="3">
+      <c r="H6" s="3">
         <v>2.5000000000000001E-11</v>
       </c>
-      <c r="H6" s="2">
+      <c r="I6" s="2">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="I6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>29</v>
       </c>
@@ -1277,23 +1308,26 @@
       <c r="D7" s="2">
         <v>100</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="2">
         <v>4</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>1</v>
       </c>
-      <c r="G7" s="3">
+      <c r="H7" s="3">
         <v>2.5000000000000001E-11</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>16</v>
       </c>
-      <c r="I7" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>32</v>
       </c>
@@ -1304,19 +1338,22 @@
       <c r="D8" s="2">
         <v>1</v>
       </c>
-      <c r="E8" s="2">
-        <v>0</v>
+      <c r="E8" t="s">
+        <v>41</v>
       </c>
       <c r="F8" s="2">
         <v>0</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
         <v>2.5000000000000001E-11</v>
       </c>
-      <c r="H8" s="2">
-        <v>0</v>
-      </c>
       <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
         <v>0</v>
       </c>
     </row>

--- a/cms_system_200_smartpx.xlsx
+++ b/cms_system_200_smartpx.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wilkie/code/system_flow/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{944AA115-6947-2E45-B9DB-A8BC2866DD8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3BF69B2-4C6F-C84A-952C-1CBD0B5FF64D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22900" yWindow="4720" windowWidth="25560" windowHeight="22100" xr2:uid="{692BBBC8-C526-4D44-8BFB-29D6E6B2783D}"/>
+    <workbookView xWindow="51200" yWindow="6740" windowWidth="21600" windowHeight="22100" activeTab="1" xr2:uid="{692BBBC8-C526-4D44-8BFB-29D6E6B2783D}"/>
   </bookViews>
   <sheets>
     <sheet name="Detectors" sheetId="1" r:id="rId1"/>
@@ -533,7 +533,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55FF34C2-0233-224E-A21E-0372D088B6D7}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -1093,8 +1093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF50D47B-EF5E-D84A-888D-0FD7C5F25128}">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1245,7 +1245,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F5" s="2">
         <v>0</v>

--- a/cms_system_200_smartpx.xlsx
+++ b/cms_system_200_smartpx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wilkie/code/system_flow/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3BF69B2-4C6F-C84A-952C-1CBD0B5FF64D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F02F9D72-DB24-C344-84B5-436287BC575D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51200" yWindow="6740" windowWidth="21600" windowHeight="22100" activeTab="1" xr2:uid="{692BBBC8-C526-4D44-8BFB-29D6E6B2783D}"/>
+    <workbookView xWindow="-26560" yWindow="8960" windowWidth="21600" windowHeight="18880" activeTab="1" xr2:uid="{692BBBC8-C526-4D44-8BFB-29D6E6B2783D}"/>
   </bookViews>
   <sheets>
     <sheet name="Detectors" sheetId="1" r:id="rId1"/>
@@ -166,10 +166,10 @@
     <t>Dummy</t>
   </si>
   <si>
-    <t>Gaussian</t>
-  </si>
-  <si>
     <t>L1T</t>
+  </si>
+  <si>
+    <t>HLT</t>
   </si>
 </sst>
 </file>
@@ -1094,7 +1094,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1277,7 +1277,7 @@
         <v>53.3</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F6" s="2">
         <v>3</v>
@@ -1309,7 +1309,7 @@
         <v>100</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F7" s="2">
         <v>4</v>

--- a/cms_system_200_smartpx.xlsx
+++ b/cms_system_200_smartpx.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wilkie/code/system_flow/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F02F9D72-DB24-C344-84B5-436287BC575D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{974EB507-9B16-814B-9293-86147F1281B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26560" yWindow="8960" windowWidth="21600" windowHeight="18880" activeTab="1" xr2:uid="{692BBBC8-C526-4D44-8BFB-29D6E6B2783D}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="50040" windowHeight="28300" activeTab="1" xr2:uid="{692BBBC8-C526-4D44-8BFB-29D6E6B2783D}"/>
   </bookViews>
   <sheets>
     <sheet name="Detectors" sheetId="1" r:id="rId1"/>
-    <sheet name="Triggers" sheetId="2" r:id="rId2"/>
+    <sheet name="Processors" sheetId="2" r:id="rId2"/>
     <sheet name="Global" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
